--- a/CFBPoll/Resources/BOAT and WOAT.xlsx
+++ b/CFBPoll/Resources/BOAT and WOAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Documents\GitHub\CFBPollNew\rsc\teams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Documents\GitHub\CFBPoll\CFBPoll\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053CB629-0365-40BE-A4D2-65B57B2B5FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F86A5B-E4F9-4F54-8565-E408544A09E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CD7DC722-BCA6-480D-9BEB-13AA7385FFC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
   <si>
     <t>Auburn</t>
   </si>
@@ -591,7 +591,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,8 +624,8 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="1">
-        <f>AVERAGE(I3:I13)</f>
-        <v>40.99218181818182</v>
+        <f>AVERAGE(I3:I14)</f>
+        <v>41.086466666666666</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>48</v>
@@ -812,16 +812,16 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1">
-        <v>41.615000000000002</v>
+        <v>42.123600000000003</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5">
         <v>2013</v>
@@ -862,13 +862,13 @@
         <v>26</v>
       </c>
       <c r="G6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="1">
-        <v>41.061</v>
+        <v>41.615000000000002</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>31</v>
@@ -915,10 +915,10 @@
         <v>2016</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1">
-        <v>41.043999999999997</v>
+        <v>41.061</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>31</v>
@@ -962,16 +962,16 @@
         <v>27</v>
       </c>
       <c r="G8">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
-        <v>40.866</v>
+        <v>41.043999999999997</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M8">
         <v>2005</v>
@@ -1012,16 +1012,16 @@
         <v>39</v>
       </c>
       <c r="G9">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
       </c>
       <c r="I9" s="1">
-        <v>40.396999999999998</v>
+        <v>40.866</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M9">
         <v>2002</v>
@@ -1062,13 +1062,13 @@
         <v>27</v>
       </c>
       <c r="G10">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1">
-        <v>40.359000000000002</v>
+        <v>40.396999999999998</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>31</v>
@@ -1112,16 +1112,16 @@
         <v>27</v>
       </c>
       <c r="G11">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1">
-        <v>40.344999999999999</v>
+        <v>40.359000000000002</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M11">
         <v>2005</v>
@@ -1162,13 +1162,13 @@
         <v>26</v>
       </c>
       <c r="G12">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>40.267000000000003</v>
+        <v>40.344999999999999</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>27</v>
@@ -1212,16 +1212,16 @@
         <v>26</v>
       </c>
       <c r="G13">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="1">
-        <v>40.140999999999998</v>
+        <v>40.267000000000003</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M13">
         <v>2003</v>
@@ -1249,8 +1249,18 @@
       <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="5"/>
+      <c r="G14">
+        <v>2014</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1">
+        <v>40.140999999999998</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M14">
         <v>2002</v>
       </c>
@@ -1281,7 +1291,6 @@
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="5"/>
       <c r="M15">
@@ -1314,6 +1323,7 @@
       <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="G16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="5"/>
       <c r="M16">
@@ -1332,6 +1342,8 @@
       <c r="X16" s="5"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+      <c r="J17" s="5"/>
       <c r="M17">
         <v>2012</v>
       </c>

--- a/CFBPoll/Resources/BOAT and WOAT.xlsx
+++ b/CFBPoll/Resources/BOAT and WOAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Documents\GitHub\CFBPoll\CFBPoll\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F86A5B-E4F9-4F54-8565-E408544A09E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671F964E-05BF-4C27-AF0C-58005B03E8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CD7DC722-BCA6-480D-9BEB-13AA7385FFC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>Auburn</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Georgia</t>
+  </si>
+  <si>
+    <t>Michigan</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,8 +627,8 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="1">
-        <f>AVERAGE(I3:I14)</f>
-        <v>41.086466666666666</v>
+        <f>AVERAGE(I3:I15)</f>
+        <v>41.098584615384617</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>48</v>
@@ -644,8 +647,8 @@
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="1">
-        <f>AVERAGE(U3:U12)</f>
-        <v>15.1547</v>
+        <f>AVERAGE(U3:U13)</f>
+        <v>15.214454545454545</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -812,13 +815,13 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="1">
-        <v>42.123600000000003</v>
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <v>41.244</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>30</v>
@@ -862,16 +865,16 @@
         <v>26</v>
       </c>
       <c r="G6">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1">
-        <v>41.615000000000002</v>
+        <v>42.123600000000003</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6">
         <v>2006</v>
@@ -912,13 +915,13 @@
         <v>26</v>
       </c>
       <c r="G7">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="1">
-        <v>41.061</v>
+        <v>41.615000000000002</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>31</v>
@@ -965,10 +968,10 @@
         <v>2016</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1">
-        <v>41.043999999999997</v>
+        <v>41.061</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>31</v>
@@ -1012,16 +1015,16 @@
         <v>39</v>
       </c>
       <c r="G9">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1">
-        <v>40.866</v>
+        <v>41.043999999999997</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M9">
         <v>2002</v>
@@ -1062,16 +1065,16 @@
         <v>27</v>
       </c>
       <c r="G10">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="1">
-        <v>40.396999999999998</v>
+        <v>40.866</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M10">
         <v>2003</v>
@@ -1112,13 +1115,13 @@
         <v>27</v>
       </c>
       <c r="G11">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1">
-        <v>40.359000000000002</v>
+        <v>40.396999999999998</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>31</v>
@@ -1162,16 +1165,16 @@
         <v>26</v>
       </c>
       <c r="G12">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1">
-        <v>40.344999999999999</v>
+        <v>40.359000000000002</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M12">
         <v>2001</v>
@@ -1212,13 +1215,13 @@
         <v>26</v>
       </c>
       <c r="G13">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1">
-        <v>40.267000000000003</v>
+        <v>40.344999999999999</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>27</v>
@@ -1234,6 +1237,18 @@
       </c>
       <c r="P13" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="S13">
+        <v>2023</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="1">
+        <v>15.811999999999999</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -1250,16 +1265,16 @@
         <v>29</v>
       </c>
       <c r="G14">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="H14" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="1">
-        <v>40.140999999999998</v>
+        <v>40.267000000000003</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M14">
         <v>2002</v>
@@ -1291,8 +1306,18 @@
       <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="5"/>
+      <c r="G15">
+        <v>2014</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>40.140999999999998</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M15">
         <v>2012</v>
       </c>

--- a/CFBPoll/Resources/BOAT and WOAT.xlsx
+++ b/CFBPoll/Resources/BOAT and WOAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Documents\GitHub\CFBPoll\CFBPoll\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671F964E-05BF-4C27-AF0C-58005B03E8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4FA3B-BA14-4944-9F54-6BC32414D539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CD7DC722-BCA6-480D-9BEB-13AA7385FFC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
   <si>
     <t>Auburn</t>
   </si>
@@ -295,9 +295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -335,7 +335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -441,7 +441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,7 +583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -594,7 +594,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,8 +647,8 @@
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="1">
-        <f>AVERAGE(U3:U13)</f>
-        <v>15.214454545454545</v>
+        <f>AVERAGE(U3:U14)</f>
+        <v>15.257833333333336</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -1139,13 +1139,13 @@
         <v>41</v>
       </c>
       <c r="S11">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="T11" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="U11" s="1">
-        <v>15.752000000000001</v>
+        <v>15.734999999999999</v>
       </c>
       <c r="V11" s="5" t="s">
         <v>32</v>
@@ -1189,16 +1189,16 @@
         <v>34</v>
       </c>
       <c r="S12">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="T12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U12" s="1">
-        <v>15.79</v>
+        <v>15.752000000000001</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
@@ -1239,16 +1239,16 @@
         <v>32</v>
       </c>
       <c r="S13">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="T13" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="U13" s="1">
-        <v>15.811999999999999</v>
+        <v>15.79</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -1288,8 +1288,18 @@
       <c r="P14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="S14">
+        <v>2023</v>
+      </c>
+      <c r="T14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="1">
+        <v>15.811999999999999</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="W14" s="4"/>
       <c r="X14" s="6"/>
     </row>

--- a/CFBPoll/Resources/BOAT and WOAT.xlsx
+++ b/CFBPoll/Resources/BOAT and WOAT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taylor\Documents\GitHub\CFBPoll\CFBPoll\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4FA3B-BA14-4944-9F54-6BC32414D539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2072B5-23DB-4C03-9B9A-3951B53FFC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{CD7DC722-BCA6-480D-9BEB-13AA7385FFC0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="58">
   <si>
     <t>Auburn</t>
   </si>
@@ -204,18 +204,23 @@
   </si>
   <si>
     <t>Michigan</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>16-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +230,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -256,11 +254,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -272,14 +269,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,45 +610,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1">
         <f>AVERAGE(C3:C16)</f>
         <v>40.93864285714286</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1">
-        <f>AVERAGE(I3:I15)</f>
-        <v>41.098584615384617</v>
-      </c>
-      <c r="M1" s="8" t="s">
+        <f>AVERAGE(I3:I16)</f>
+        <v>41.197757142857142</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
       <c r="Q1" s="1">
         <f>AVERAGE(O3:O19)</f>
         <v>14.986352941176468</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
       <c r="W1" s="1">
-        <f>AVERAGE(U3:U14)</f>
-        <v>15.257833333333336</v>
+        <f>AVERAGE(U3:U15)</f>
+        <v>15.171384615384618</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -715,16 +715,16 @@
         <v>25</v>
       </c>
       <c r="G3" s="3">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4">
-        <v>42.445</v>
+        <v>56</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42.487000000000002</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M3" s="3">
         <v>2009</v>
@@ -764,16 +764,16 @@
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G4">
-        <v>2019</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>42.374000000000002</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="8">
+        <v>2018</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="9">
+        <v>42.445</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="M4">
@@ -789,13 +789,13 @@
         <v>33</v>
       </c>
       <c r="S4">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="T4" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="2">
-        <v>14.526999999999999</v>
+      <c r="U4">
+        <v>14.134</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>32</v>
@@ -815,13 +815,13 @@
         <v>29</v>
       </c>
       <c r="G5">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5">
-        <v>41.244</v>
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42.374000000000002</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>30</v>
@@ -839,16 +839,16 @@
         <v>32</v>
       </c>
       <c r="S5">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="1">
-        <v>15.04</v>
+        <v>16</v>
+      </c>
+      <c r="U5" s="2">
+        <v>14.526999999999999</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -865,13 +865,13 @@
         <v>26</v>
       </c>
       <c r="G6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="1">
-        <v>42.123600000000003</v>
+        <v>55</v>
+      </c>
+      <c r="I6">
+        <v>41.244</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>30</v>
@@ -889,16 +889,16 @@
         <v>32</v>
       </c>
       <c r="S6">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="T6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="U6" s="1">
-        <v>15.226000000000001</v>
+        <v>15.04</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -915,16 +915,16 @@
         <v>26</v>
       </c>
       <c r="G7">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1">
-        <v>41.615000000000002</v>
+        <v>42.123600000000003</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7">
         <v>2009</v>
@@ -939,13 +939,13 @@
         <v>32</v>
       </c>
       <c r="S7">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="T7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U7" s="1">
-        <v>15.353999999999999</v>
+        <v>15.226000000000001</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>35</v>
@@ -965,13 +965,13 @@
         <v>27</v>
       </c>
       <c r="G8">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="1">
-        <v>41.061</v>
+        <v>41.615000000000002</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>31</v>
@@ -989,13 +989,13 @@
         <v>32</v>
       </c>
       <c r="S8">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="T8" t="s">
         <v>18</v>
       </c>
       <c r="U8" s="1">
-        <v>15.371</v>
+        <v>15.353999999999999</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>35</v>
@@ -1018,10 +1018,10 @@
         <v>2016</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1">
-        <v>41.043999999999997</v>
+        <v>41.061</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>31</v>
@@ -1039,16 +1039,16 @@
         <v>35</v>
       </c>
       <c r="S9">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="T9" t="s">
         <v>18</v>
       </c>
       <c r="U9" s="1">
-        <v>15.507</v>
+        <v>15.371</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -1065,16 +1065,16 @@
         <v>27</v>
       </c>
       <c r="G10">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
-        <v>40.866</v>
+        <v>41.043999999999997</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M10">
         <v>2003</v>
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="S10">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="U10" s="1">
-        <v>15.61</v>
+        <v>15.507</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
@@ -1115,16 +1115,16 @@
         <v>27</v>
       </c>
       <c r="G11">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
       </c>
       <c r="I11" s="1">
-        <v>40.396999999999998</v>
+        <v>40.866</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M11">
         <v>2005</v>
@@ -1139,16 +1139,16 @@
         <v>41</v>
       </c>
       <c r="S11">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="T11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="U11" s="1">
-        <v>15.734999999999999</v>
+        <v>15.61</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -1165,13 +1165,13 @@
         <v>26</v>
       </c>
       <c r="G12">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>40.359000000000002</v>
+        <v>40.396999999999998</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>31</v>
@@ -1189,13 +1189,13 @@
         <v>34</v>
       </c>
       <c r="S12">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="T12" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="U12" s="1">
-        <v>15.752000000000001</v>
+        <v>15.734999999999999</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>32</v>
@@ -1215,16 +1215,16 @@
         <v>26</v>
       </c>
       <c r="G13">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1">
-        <v>40.344999999999999</v>
+        <v>40.359000000000002</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M13">
         <v>2003</v>
@@ -1239,16 +1239,16 @@
         <v>32</v>
       </c>
       <c r="S13">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="T13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="U13" s="1">
-        <v>15.79</v>
+        <v>15.752000000000001</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -1265,13 +1265,13 @@
         <v>29</v>
       </c>
       <c r="G14">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I14" s="1">
-        <v>40.267000000000003</v>
+        <v>40.344999999999999</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>27</v>
@@ -1289,16 +1289,16 @@
         <v>35</v>
       </c>
       <c r="S14">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="T14" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="U14" s="1">
-        <v>15.811999999999999</v>
+        <v>15.79</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="6"/>
@@ -1317,16 +1317,16 @@
         <v>29</v>
       </c>
       <c r="G15">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="H15" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="1">
-        <v>40.140999999999998</v>
+        <v>40.267000000000003</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M15">
         <v>2012</v>
@@ -1340,8 +1340,18 @@
       <c r="P15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="S15">
+        <v>2023</v>
+      </c>
+      <c r="T15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="1">
+        <v>15.811999999999999</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="6"/>
     </row>
@@ -1358,9 +1368,18 @@
       <c r="D16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="5"/>
+      <c r="G16">
+        <v>2014</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1">
+        <v>40.140999999999998</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="M16">
         <v>2005</v>
       </c>
@@ -1512,5 +1531,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D3" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>